--- a/Data.xlsx
+++ b/Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15" count="15">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35" count="35">
   <x:si>
     <x:t>id</x:t>
   </x:si>
@@ -59,6 +59,66 @@
   </x:si>
   <x:si>
     <x:t>junaedi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>amel@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gusti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>amelia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ayo@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ayo@gmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mari@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>amel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jungkook@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>namjoon@gmail.com</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -506,6 +566,244 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="A10" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5">
+      <x:c r="A11" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5">
+      <x:c r="A12" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5">
+      <x:c r="A13" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:5">
+      <x:c r="A14" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:5">
+      <x:c r="A15" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:5">
+      <x:c r="A16" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:5">
+      <x:c r="A17" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:5">
+      <x:c r="A18" s="0" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:5">
+      <x:c r="A19" s="0" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35" count="35">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13" count="13">
   <x:si>
     <x:t>id</x:t>
   </x:si>
@@ -31,94 +31,28 @@
     <x:t>avatar</x:t>
   </x:si>
   <x:si>
-    <x:t>faiz@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>faiz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sulis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>image</x:t>
-  </x:si>
-  <x:si>
-    <x:t>coba@gmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lala</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>yusuf@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>yusuf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>junaedi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>amel@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gusti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>amelia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ayo@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ayo@gmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mari@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>amel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
+    <x:t>namjoon@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Namjoon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://i.pinimg.com/736x/8b/e2/91/8be291beee5a55d9506a06c0917f4b17.jpg</x:t>
   </x:si>
   <x:si>
     <x:t>jungkook@gmail.com</x:t>
   </x:si>
   <x:si>
-    <x:t>namjoon@gmail.com</x:t>
+    <x:t>Joen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jungkook</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://upload.wikimedia.org/wikipedia/commons/9/9e/Jungkook_for_Dispatch_%22Boy_With_Luv%22_MV_behind_the_scene_shooting%2C_15_March_2019_07_%28cropped%29.jpg</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -500,7 +434,7 @@
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>5</x:v>
@@ -517,291 +451,19 @@
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5">
-      <x:c r="A4" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:5">
-      <x:c r="A5" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:5">
-      <x:c r="A6" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:5">
-      <x:c r="A7" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:5">
-      <x:c r="A8" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5">
-      <x:c r="A9" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5">
-      <x:c r="A10" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5">
-      <x:c r="A11" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:5">
-      <x:c r="A12" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:5">
-      <x:c r="A13" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:5">
-      <x:c r="A14" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:5">
-      <x:c r="A15" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E15" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:5">
-      <x:c r="A16" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E16" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:5">
-      <x:c r="A17" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E17" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:5">
-      <x:c r="A18" s="0" t="n">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B18" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C18" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E18" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:5">
-      <x:c r="A19" s="0" t="n">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B19" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E19" s="0" t="s">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
